--- a/final_data_pipeline/output/311615_elec_options.xlsx
+++ b/final_data_pipeline/output/311615_elec_options.xlsx
@@ -927,7 +927,7 @@
         <v>118</v>
       </c>
       <c r="AD2">
-        <v>10</v>
+        <v>19.30324074074072</v>
       </c>
       <c r="AE2">
         <v>8000</v>
@@ -1016,7 +1016,7 @@
         <v>118</v>
       </c>
       <c r="AD3">
-        <v>10</v>
+        <v>19.30324074074072</v>
       </c>
       <c r="AE3">
         <v>8000</v>
@@ -1105,7 +1105,7 @@
         <v>118</v>
       </c>
       <c r="AD4">
-        <v>10</v>
+        <v>19.30324074074072</v>
       </c>
       <c r="AE4">
         <v>8000</v>
@@ -1194,7 +1194,7 @@
         <v>118</v>
       </c>
       <c r="AD5">
-        <v>10</v>
+        <v>19.30324074074072</v>
       </c>
       <c r="AE5">
         <v>8000</v>
@@ -1283,7 +1283,7 @@
         <v>118</v>
       </c>
       <c r="AD6">
-        <v>10</v>
+        <v>19.30324074074072</v>
       </c>
       <c r="AE6">
         <v>8000</v>
@@ -1372,7 +1372,7 @@
         <v>118</v>
       </c>
       <c r="AD7">
-        <v>10</v>
+        <v>19.30324074074072</v>
       </c>
       <c r="AE7">
         <v>8000</v>
@@ -1461,7 +1461,7 @@
         <v>118</v>
       </c>
       <c r="AD8">
-        <v>10</v>
+        <v>19.30324074074072</v>
       </c>
       <c r="AE8">
         <v>8000</v>
@@ -1550,7 +1550,7 @@
         <v>118</v>
       </c>
       <c r="AD9">
-        <v>10</v>
+        <v>19.30324074074072</v>
       </c>
       <c r="AE9">
         <v>8000</v>
@@ -1639,7 +1639,7 @@
         <v>118</v>
       </c>
       <c r="AD10">
-        <v>10</v>
+        <v>19.30324074074072</v>
       </c>
       <c r="AE10">
         <v>8000</v>
@@ -1728,7 +1728,7 @@
         <v>118</v>
       </c>
       <c r="AD11">
-        <v>10</v>
+        <v>17.25771604938272</v>
       </c>
       <c r="AE11">
         <v>8000</v>
@@ -1817,7 +1817,7 @@
         <v>118</v>
       </c>
       <c r="AD12">
-        <v>10</v>
+        <v>17.25771604938272</v>
       </c>
       <c r="AE12">
         <v>8000</v>
@@ -1906,7 +1906,7 @@
         <v>118</v>
       </c>
       <c r="AD13">
-        <v>10</v>
+        <v>17.25771604938272</v>
       </c>
       <c r="AE13">
         <v>8000</v>
@@ -1995,7 +1995,7 @@
         <v>118</v>
       </c>
       <c r="AD14">
-        <v>10</v>
+        <v>17.25771604938272</v>
       </c>
       <c r="AE14">
         <v>8000</v>
@@ -2084,7 +2084,7 @@
         <v>118</v>
       </c>
       <c r="AD15">
-        <v>10</v>
+        <v>17.25771604938272</v>
       </c>
       <c r="AE15">
         <v>8000</v>
@@ -2173,7 +2173,7 @@
         <v>118</v>
       </c>
       <c r="AD16">
-        <v>10</v>
+        <v>17.25771604938272</v>
       </c>
       <c r="AE16">
         <v>8000</v>
@@ -2262,7 +2262,7 @@
         <v>118</v>
       </c>
       <c r="AD17">
-        <v>10</v>
+        <v>13.62268518518517</v>
       </c>
       <c r="AE17">
         <v>8000</v>
@@ -2351,7 +2351,7 @@
         <v>118</v>
       </c>
       <c r="AD18">
-        <v>10</v>
+        <v>13.62268518518517</v>
       </c>
       <c r="AE18">
         <v>8000</v>
@@ -2440,7 +2440,7 @@
         <v>118</v>
       </c>
       <c r="AD19">
-        <v>10</v>
+        <v>13.62268518518517</v>
       </c>
       <c r="AE19">
         <v>8000</v>
@@ -2529,7 +2529,7 @@
         <v>118</v>
       </c>
       <c r="AD20">
-        <v>10</v>
+        <v>13.62268518518517</v>
       </c>
       <c r="AE20">
         <v>8000</v>
@@ -2618,7 +2618,7 @@
         <v>118</v>
       </c>
       <c r="AD21">
-        <v>10</v>
+        <v>13.62268518518517</v>
       </c>
       <c r="AE21">
         <v>8000</v>
@@ -2707,7 +2707,7 @@
         <v>118</v>
       </c>
       <c r="AD22">
-        <v>10</v>
+        <v>13.62268518518517</v>
       </c>
       <c r="AE22">
         <v>8000</v>
@@ -2796,7 +2796,7 @@
         <v>118</v>
       </c>
       <c r="AD23">
-        <v>10</v>
+        <v>13.62268518518517</v>
       </c>
       <c r="AE23">
         <v>8000</v>
@@ -2885,7 +2885,7 @@
         <v>118</v>
       </c>
       <c r="AD24">
-        <v>10</v>
+        <v>13.62268518518517</v>
       </c>
       <c r="AE24">
         <v>8000</v>
@@ -2974,7 +2974,7 @@
         <v>118</v>
       </c>
       <c r="AD25">
-        <v>10</v>
+        <v>13.62268518518517</v>
       </c>
       <c r="AE25">
         <v>8000</v>
@@ -6534,7 +6534,7 @@
         <v>118</v>
       </c>
       <c r="AD65">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AE65">
         <v>8000</v>
@@ -6623,7 +6623,7 @@
         <v>118</v>
       </c>
       <c r="AD66">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AE66">
         <v>8000</v>
@@ -6712,7 +6712,7 @@
         <v>118</v>
       </c>
       <c r="AD67">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AE67">
         <v>8000</v>
@@ -6801,7 +6801,7 @@
         <v>118</v>
       </c>
       <c r="AD68">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="AE68">
         <v>8000</v>
@@ -6890,7 +6890,7 @@
         <v>118</v>
       </c>
       <c r="AD69">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="AE69">
         <v>8000</v>
@@ -6979,7 +6979,7 @@
         <v>118</v>
       </c>
       <c r="AD70">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="AE70">
         <v>8000</v>
@@ -7068,7 +7068,7 @@
         <v>118</v>
       </c>
       <c r="AD71">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="AE71">
         <v>8000</v>
@@ -7157,7 +7157,7 @@
         <v>118</v>
       </c>
       <c r="AD72">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="AE72">
         <v>8000</v>
@@ -7246,7 +7246,7 @@
         <v>118</v>
       </c>
       <c r="AD73">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="AE73">
         <v>8000</v>
@@ -7335,7 +7335,7 @@
         <v>118</v>
       </c>
       <c r="AD74">
-        <v>10</v>
+        <v>0.8611111111111096</v>
       </c>
       <c r="AE74">
         <v>8000</v>
@@ -7424,7 +7424,7 @@
         <v>118</v>
       </c>
       <c r="AD75">
-        <v>10</v>
+        <v>0.8611111111111096</v>
       </c>
       <c r="AE75">
         <v>8000</v>
@@ -7513,7 +7513,7 @@
         <v>118</v>
       </c>
       <c r="AD76">
-        <v>10</v>
+        <v>0.8611111111111096</v>
       </c>
       <c r="AE76">
         <v>8000</v>
@@ -7602,7 +7602,7 @@
         <v>118</v>
       </c>
       <c r="AD77">
-        <v>10</v>
+        <v>0.8611111111111096</v>
       </c>
       <c r="AE77">
         <v>8000</v>
@@ -7691,7 +7691,7 @@
         <v>118</v>
       </c>
       <c r="AD78">
-        <v>10</v>
+        <v>0.8611111111111096</v>
       </c>
       <c r="AE78">
         <v>8000</v>
@@ -7780,7 +7780,7 @@
         <v>118</v>
       </c>
       <c r="AD79">
-        <v>10</v>
+        <v>0.8611111111111096</v>
       </c>
       <c r="AE79">
         <v>8000</v>
@@ -8136,7 +8136,7 @@
         <v>118</v>
       </c>
       <c r="AD83">
-        <v>10</v>
+        <v>0.8611111111111096</v>
       </c>
       <c r="AE83">
         <v>8000</v>
@@ -8225,7 +8225,7 @@
         <v>118</v>
       </c>
       <c r="AD84">
-        <v>10</v>
+        <v>0.8611111111111096</v>
       </c>
       <c r="AE84">
         <v>8000</v>
@@ -8314,7 +8314,7 @@
         <v>118</v>
       </c>
       <c r="AD85">
-        <v>10</v>
+        <v>0.8611111111111096</v>
       </c>
       <c r="AE85">
         <v>8000</v>
@@ -8403,7 +8403,7 @@
         <v>118</v>
       </c>
       <c r="AD86">
-        <v>10</v>
+        <v>0.8611111111111096</v>
       </c>
       <c r="AE86">
         <v>8000</v>
@@ -8492,7 +8492,7 @@
         <v>118</v>
       </c>
       <c r="AD87">
-        <v>10</v>
+        <v>0.8611111111111096</v>
       </c>
       <c r="AE87">
         <v>8000</v>
@@ -8581,7 +8581,7 @@
         <v>118</v>
       </c>
       <c r="AD88">
-        <v>10</v>
+        <v>0.8611111111111096</v>
       </c>
       <c r="AE88">
         <v>8000</v>
@@ -8937,7 +8937,7 @@
         <v>118</v>
       </c>
       <c r="AD92">
-        <v>10</v>
+        <v>5.486111111111112</v>
       </c>
       <c r="AE92">
         <v>8000</v>
@@ -9026,7 +9026,7 @@
         <v>118</v>
       </c>
       <c r="AD93">
-        <v>10</v>
+        <v>5.486111111111112</v>
       </c>
       <c r="AE93">
         <v>8000</v>
@@ -9115,7 +9115,7 @@
         <v>118</v>
       </c>
       <c r="AD94">
-        <v>10</v>
+        <v>5.486111111111112</v>
       </c>
       <c r="AE94">
         <v>8000</v>
@@ -9204,7 +9204,7 @@
         <v>118</v>
       </c>
       <c r="AD95">
-        <v>10</v>
+        <v>16.86342592592595</v>
       </c>
       <c r="AE95">
         <v>8000</v>
@@ -9293,7 +9293,7 @@
         <v>118</v>
       </c>
       <c r="AD96">
-        <v>10</v>
+        <v>16.86342592592595</v>
       </c>
       <c r="AE96">
         <v>8000</v>
@@ -9382,7 +9382,7 @@
         <v>118</v>
       </c>
       <c r="AD97">
-        <v>10</v>
+        <v>16.86342592592595</v>
       </c>
       <c r="AE97">
         <v>8000</v>
@@ -9471,7 +9471,7 @@
         <v>118</v>
       </c>
       <c r="AD98">
-        <v>10</v>
+        <v>16.86342592592595</v>
       </c>
       <c r="AE98">
         <v>8000</v>
@@ -9560,7 +9560,7 @@
         <v>118</v>
       </c>
       <c r="AD99">
-        <v>10</v>
+        <v>16.86342592592595</v>
       </c>
       <c r="AE99">
         <v>8000</v>
@@ -9649,7 +9649,7 @@
         <v>118</v>
       </c>
       <c r="AD100">
-        <v>10</v>
+        <v>16.86342592592595</v>
       </c>
       <c r="AE100">
         <v>8000</v>
@@ -9738,7 +9738,7 @@
         <v>118</v>
       </c>
       <c r="AD101">
-        <v>10</v>
+        <v>5.486111111111112</v>
       </c>
       <c r="AE101">
         <v>8000</v>
@@ -9827,7 +9827,7 @@
         <v>118</v>
       </c>
       <c r="AD102">
-        <v>10</v>
+        <v>5.486111111111112</v>
       </c>
       <c r="AE102">
         <v>8000</v>
@@ -9916,7 +9916,7 @@
         <v>118</v>
       </c>
       <c r="AD103">
-        <v>10</v>
+        <v>5.486111111111112</v>
       </c>
       <c r="AE103">
         <v>8000</v>
@@ -10005,7 +10005,7 @@
         <v>118</v>
       </c>
       <c r="AD104">
-        <v>10</v>
+        <v>5.486111111111112</v>
       </c>
       <c r="AE104">
         <v>8000</v>
@@ -10094,7 +10094,7 @@
         <v>118</v>
       </c>
       <c r="AD105">
-        <v>10</v>
+        <v>5.486111111111112</v>
       </c>
       <c r="AE105">
         <v>8000</v>
@@ -10183,7 +10183,7 @@
         <v>118</v>
       </c>
       <c r="AD106">
-        <v>10</v>
+        <v>5.486111111111112</v>
       </c>
       <c r="AE106">
         <v>8000</v>
@@ -10272,7 +10272,7 @@
         <v>118</v>
       </c>
       <c r="AD107">
-        <v>10</v>
+        <v>12.41429539295394</v>
       </c>
       <c r="AE107">
         <v>8000</v>
@@ -10361,7 +10361,7 @@
         <v>118</v>
       </c>
       <c r="AD108">
-        <v>10</v>
+        <v>12.41429539295394</v>
       </c>
       <c r="AE108">
         <v>8000</v>
@@ -10450,7 +10450,7 @@
         <v>118</v>
       </c>
       <c r="AD109">
-        <v>10</v>
+        <v>12.41429539295394</v>
       </c>
       <c r="AE109">
         <v>8000</v>
@@ -10806,7 +10806,7 @@
         <v>118</v>
       </c>
       <c r="AD113">
-        <v>10</v>
+        <v>19.36574074074073</v>
       </c>
       <c r="AE113">
         <v>8000</v>
@@ -10895,7 +10895,7 @@
         <v>118</v>
       </c>
       <c r="AD114">
-        <v>10</v>
+        <v>19.36574074074073</v>
       </c>
       <c r="AE114">
         <v>8000</v>
@@ -10984,7 +10984,7 @@
         <v>118</v>
       </c>
       <c r="AD115">
-        <v>10</v>
+        <v>19.36574074074073</v>
       </c>
       <c r="AE115">
         <v>8000</v>
@@ -13209,7 +13209,7 @@
         <v>118</v>
       </c>
       <c r="AD140">
-        <v>10</v>
+        <v>12.41429539295394</v>
       </c>
       <c r="AE140">
         <v>8000</v>
@@ -13298,7 +13298,7 @@
         <v>118</v>
       </c>
       <c r="AD141">
-        <v>10</v>
+        <v>12.41429539295394</v>
       </c>
       <c r="AE141">
         <v>8000</v>
@@ -13387,7 +13387,7 @@
         <v>118</v>
       </c>
       <c r="AD142">
-        <v>10</v>
+        <v>12.41429539295394</v>
       </c>
       <c r="AE142">
         <v>8000</v>
@@ -13743,7 +13743,7 @@
         <v>118</v>
       </c>
       <c r="AD146">
-        <v>10</v>
+        <v>12.41429539295394</v>
       </c>
       <c r="AE146">
         <v>8000</v>
@@ -13832,7 +13832,7 @@
         <v>118</v>
       </c>
       <c r="AD147">
-        <v>10</v>
+        <v>12.41429539295394</v>
       </c>
       <c r="AE147">
         <v>8000</v>
@@ -13921,7 +13921,7 @@
         <v>118</v>
       </c>
       <c r="AD148">
-        <v>10</v>
+        <v>12.41429539295394</v>
       </c>
       <c r="AE148">
         <v>8000</v>
@@ -14016,7 +14016,7 @@
         <v>118</v>
       </c>
       <c r="AD149">
-        <v>10</v>
+        <v>12.41429539295394</v>
       </c>
       <c r="AE149">
         <v>8000</v>
@@ -14105,7 +14105,7 @@
         <v>118</v>
       </c>
       <c r="AD150">
-        <v>10</v>
+        <v>12.41429539295394</v>
       </c>
       <c r="AE150">
         <v>8000</v>
@@ -14194,7 +14194,7 @@
         <v>118</v>
       </c>
       <c r="AD151">
-        <v>10</v>
+        <v>12.41429539295394</v>
       </c>
       <c r="AE151">
         <v>8000</v>
@@ -14283,7 +14283,7 @@
         <v>118</v>
       </c>
       <c r="AD152">
-        <v>10</v>
+        <v>12.41429539295394</v>
       </c>
       <c r="AE152">
         <v>8000</v>
@@ -14378,7 +14378,7 @@
         <v>118</v>
       </c>
       <c r="AD153">
-        <v>10</v>
+        <v>12.41429539295394</v>
       </c>
       <c r="AE153">
         <v>8000</v>
@@ -14473,7 +14473,7 @@
         <v>118</v>
       </c>
       <c r="AD154">
-        <v>10</v>
+        <v>12.41429539295394</v>
       </c>
       <c r="AE154">
         <v>8000</v>
